--- a/students-projects/assets/files/subjects.xlsx
+++ b/students-projects/assets/files/subjects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiwa\Documents\Angular Projects\students-projects\src\assets\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stiwa\Documents\Angular Projects\students-projects-app\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD7DACB-87D4-4609-AF67-F6E88202A8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2476D0D7-848D-44D1-BB06-3DEAB1B6FBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CAF8C8D3-6278-4836-A629-04B0279E0A1C}"/>
   </bookViews>
@@ -101,16 +101,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,38 +428,38 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
